--- a/MetroGraphe/MetroGraphe/bin/Debug/net8.0/Liens_corrige.xlsx
+++ b/MetroGraphe/MetroGraphe/bin/Debug/net8.0/Liens_corrige.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\joach\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\joach\Documents\ESILV\GITHUB\Projet_Livin-paris\MetroGraphe\MetroGraphe\bin\Debug\net8.0\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FFC0E11C-37D6-451C-BE58-F10D6DBC1CB6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F81530B-145E-4239-86A8-1E7A663A11CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1664,8 +1664,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F332"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A120" workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G1" sqref="G1:G1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
